--- a/Data/collapsed database manual cases/veracruz_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/veracruz_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/veracruz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76DCF0BA-1A69-704A-AA80-D78C75C4CD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F692B03E-4C0C-684A-9034-D891DCC88226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8937,13 +8937,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9251,9 +9250,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S1106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1081" sqref="E1081"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1132" sqref="G1132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10016,49 +10015,49 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>30003</v>
+        <v>30014</v>
       </c>
       <c r="B16">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="L16" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="M16" t="s">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="N16" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="O16">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30004</v>
       </c>
@@ -10105,7 +10104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>30004</v>
       </c>
@@ -10155,7 +10154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>30004</v>
       </c>
@@ -10205,7 +10204,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>30004</v>
       </c>
@@ -10255,7 +10254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>30004</v>
       </c>
@@ -10305,7 +10304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>30005</v>
       </c>
@@ -10352,7 +10351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>30005</v>
       </c>
@@ -10399,7 +10398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>30005</v>
       </c>
@@ -10449,7 +10448,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>30005</v>
       </c>
@@ -10499,7 +10498,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>30005</v>
       </c>
@@ -10546,7 +10545,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30006</v>
       </c>
@@ -10593,7 +10592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30006</v>
       </c>
@@ -10640,51 +10639,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>30006</v>
-      </c>
-      <c r="B29" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O29" s="3">
-        <v>2010</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>30158</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="O29" s="2">
+        <v>2004</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30006</v>
       </c>
@@ -10734,7 +10738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30006</v>
       </c>
@@ -10781,7 +10785,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30007</v>
       </c>
@@ -12380,7 +12384,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>30013</v>
       </c>
@@ -12430,7 +12434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>30013</v>
       </c>
@@ -12477,51 +12481,56 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>30014</v>
-      </c>
-      <c r="B67" s="3">
-        <v>2004</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="O67" s="3">
-        <v>2004</v>
-      </c>
-      <c r="P67" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q67" s="3" t="s">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>30181</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>2510</v>
+      </c>
+      <c r="O67" s="2">
+        <v>2004</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q67" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>30014</v>
       </c>
@@ -12568,7 +12577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>30014</v>
       </c>
@@ -12618,7 +12627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>30014</v>
       </c>
@@ -12665,7 +12674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>30014</v>
       </c>
@@ -12715,7 +12724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>30015</v>
       </c>
@@ -12765,7 +12774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>30015</v>
       </c>
@@ -12815,7 +12824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>30015</v>
       </c>
@@ -12865,7 +12874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>30015</v>
       </c>
@@ -12915,7 +12924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>30015</v>
       </c>
@@ -12965,7 +12974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>30016</v>
       </c>
@@ -13015,7 +13024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>30016</v>
       </c>
@@ -13062,57 +13071,57 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>30016</v>
       </c>
-      <c r="B79" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="B79">
+        <v>2010</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" t="s">
         <v>269</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" t="s">
         <v>30</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" t="s">
         <v>275</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I79" s="3" t="s">
+      <c r="H79" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" t="s">
         <v>2954</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="J79" t="s">
         <v>28</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="K79" t="s">
         <v>275</v>
       </c>
-      <c r="L79" s="3" t="s">
+      <c r="L79" t="s">
         <v>34</v>
       </c>
-      <c r="M79" s="3" t="s">
+      <c r="M79" t="s">
         <v>28</v>
       </c>
-      <c r="N79" s="3" t="s">
+      <c r="N79" t="s">
         <v>276</v>
       </c>
-      <c r="O79" s="3">
-        <v>2010</v>
-      </c>
-      <c r="P79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q79" s="3" t="s">
+      <c r="O79">
+        <v>2010</v>
+      </c>
+      <c r="P79" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q79" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>30016</v>
       </c>
@@ -13929,7 +13938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>30020</v>
       </c>
@@ -13976,7 +13985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>30020</v>
       </c>
@@ -14023,7 +14032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>30020</v>
       </c>
@@ -14070,7 +14079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>30020</v>
       </c>
@@ -14117,7 +14126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>30020</v>
       </c>
@@ -14164,7 +14173,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>30021</v>
       </c>
@@ -14211,7 +14220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>30021</v>
       </c>
@@ -14258,7 +14267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>30021</v>
       </c>
@@ -14308,7 +14317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>30021</v>
       </c>
@@ -14349,7 +14358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>30021</v>
       </c>
@@ -14399,7 +14408,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>30022</v>
       </c>
@@ -14446,7 +14455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>30022</v>
       </c>
@@ -14493,51 +14502,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
-        <v>30022</v>
-      </c>
-      <c r="B109" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="M109" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="N109" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="O109" s="3">
-        <v>2010</v>
-      </c>
-      <c r="P109" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q109" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>30184</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>2550</v>
+      </c>
+      <c r="O109" s="2">
+        <v>2004</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+    </row>
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>30022</v>
       </c>
@@ -14587,7 +14601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>30023</v>
       </c>
@@ -14637,7 +14651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>30023</v>
       </c>
@@ -15460,51 +15474,56 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
-        <v>30026</v>
-      </c>
-      <c r="B129" s="3">
-        <v>2017</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K129" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="L129" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M129" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N129" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="O129" s="3">
-        <v>2016</v>
-      </c>
-      <c r="P129" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q129" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>30207</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>2870</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>2876</v>
+      </c>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>2877</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>2878</v>
+      </c>
+      <c r="O129" s="2">
+        <v>2004</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+    </row>
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>30027</v>
       </c>
@@ -15551,7 +15570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>30027</v>
       </c>
@@ -15595,7 +15614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>30027</v>
       </c>
@@ -15645,7 +15664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>30027</v>
       </c>
@@ -15695,7 +15714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>30028</v>
       </c>
@@ -15742,7 +15761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>30028</v>
       </c>
@@ -15789,7 +15808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>30028</v>
       </c>
@@ -15836,7 +15855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>30028</v>
       </c>
@@ -15886,7 +15905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>30028</v>
       </c>
@@ -15933,7 +15952,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>30029</v>
       </c>
@@ -15980,7 +15999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>30029</v>
       </c>
@@ -16027,7 +16046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>30029</v>
       </c>
@@ -16074,7 +16093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>30029</v>
       </c>
@@ -16124,7 +16143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>30029</v>
       </c>
@@ -16171,7 +16190,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>30030</v>
       </c>
@@ -16856,48 +16875,42 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="3">
-        <v>30032</v>
-      </c>
-      <c r="B158" s="3">
-        <v>2017</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K158" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="L158" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M158" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N158" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="O158" s="3">
-        <v>2016</v>
-      </c>
-      <c r="P158" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q158" s="3" t="s">
-        <v>42</v>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>30140</v>
+      </c>
+      <c r="B158">
+        <v>2007</v>
+      </c>
+      <c r="C158" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E158" t="s">
+        <v>50</v>
+      </c>
+      <c r="F158" t="s">
+        <v>1940</v>
+      </c>
+      <c r="J158" t="s">
+        <v>21</v>
+      </c>
+      <c r="K158" t="s">
+        <v>1940</v>
+      </c>
+      <c r="L158" t="s">
+        <v>50</v>
+      </c>
+      <c r="O158">
+        <v>2004</v>
+      </c>
+      <c r="P158" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -18895,46 +18908,46 @@
     </row>
     <row r="200" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>30041</v>
+        <v>30197</v>
       </c>
       <c r="B200" s="2">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>617</v>
+        <v>2734</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>355</v>
+        <v>50</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>622</v>
+        <v>2737</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>623</v>
+        <v>50</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>622</v>
+        <v>2737</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>623</v>
+        <v>50</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>624</v>
+        <v>2738</v>
       </c>
       <c r="O200" s="2">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="P200" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q200" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -20874,7 +20887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>30049</v>
       </c>
@@ -20924,7 +20937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>30049</v>
       </c>
@@ -20971,7 +20984,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>30050</v>
       </c>
@@ -21018,7 +21031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>30050</v>
       </c>
@@ -21065,7 +21078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>30050</v>
       </c>
@@ -21115,7 +21128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>30050</v>
       </c>
@@ -21165,7 +21178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>30050</v>
       </c>
@@ -21215,7 +21228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>30051</v>
       </c>
@@ -21262,7 +21275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>30051</v>
       </c>
@@ -21309,7 +21322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>30051</v>
       </c>
@@ -21359,7 +21372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>30051</v>
       </c>
@@ -21409,7 +21422,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>30051</v>
       </c>
@@ -21456,7 +21469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>30052</v>
       </c>
@@ -21503,7 +21516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>30052</v>
       </c>
@@ -21550,51 +21563,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="2">
-        <v>30052</v>
-      </c>
-      <c r="B255" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="J255" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K255" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="L255" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M255" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N255" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="O255" s="2">
-        <v>2010</v>
-      </c>
-      <c r="P255" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q255" s="2" t="s">
+    <row r="255" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>30022</v>
+      </c>
+      <c r="B255">
+        <v>2010</v>
+      </c>
+      <c r="C255" t="s">
+        <v>19</v>
+      </c>
+      <c r="D255" t="s">
+        <v>350</v>
+      </c>
+      <c r="E255" t="s">
+        <v>355</v>
+      </c>
+      <c r="F255" t="s">
+        <v>356</v>
+      </c>
+      <c r="G255"/>
+      <c r="H255"/>
+      <c r="I255"/>
+      <c r="J255" t="s">
+        <v>357</v>
+      </c>
+      <c r="K255" t="s">
+        <v>358</v>
+      </c>
+      <c r="L255" t="s">
+        <v>238</v>
+      </c>
+      <c r="M255" t="s">
+        <v>357</v>
+      </c>
+      <c r="N255" t="s">
+        <v>359</v>
+      </c>
+      <c r="O255">
+        <v>2010</v>
+      </c>
+      <c r="P255" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q255" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R255"/>
+      <c r="S255"/>
+    </row>
+    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>30052</v>
       </c>
@@ -22131,46 +22149,46 @@
     </row>
     <row r="267" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>30054</v>
+        <v>30041</v>
       </c>
       <c r="B267" s="2">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>787</v>
+        <v>617</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>790</v>
+        <v>622</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>78</v>
+        <v>623</v>
       </c>
       <c r="K267" s="2" t="s">
-        <v>790</v>
+        <v>622</v>
       </c>
       <c r="L267" s="2" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="M267" s="2" t="s">
-        <v>78</v>
+        <v>623</v>
       </c>
       <c r="N267" s="2" t="s">
-        <v>791</v>
+        <v>624</v>
       </c>
       <c r="O267" s="2">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="P267" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q267" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="268" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -25503,7 +25521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>30069</v>
       </c>
@@ -25550,7 +25568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>30069</v>
       </c>
@@ -25597,7 +25615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>30069</v>
       </c>
@@ -25647,7 +25665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>30069</v>
       </c>
@@ -25697,7 +25715,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="341" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>30070</v>
       </c>
@@ -25744,7 +25762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="342" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>30070</v>
       </c>
@@ -25791,9 +25809,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="343" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>30070</v>
+        <v>30052</v>
       </c>
       <c r="B343" s="2">
         <v>2010</v>
@@ -25802,19 +25820,19 @@
         <v>19</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>997</v>
+        <v>762</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>1002</v>
+        <v>767</v>
       </c>
       <c r="J343" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K343" s="2" t="s">
-        <v>1002</v>
+        <v>767</v>
       </c>
       <c r="L343" s="2" t="s">
         <v>34</v>
@@ -25823,7 +25841,7 @@
         <v>28</v>
       </c>
       <c r="N343" s="2" t="s">
-        <v>1003</v>
+        <v>768</v>
       </c>
       <c r="O343" s="2">
         <v>2010</v>
@@ -25835,7 +25853,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="344" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>30070</v>
       </c>
@@ -25885,51 +25903,56 @@
         <v>36</v>
       </c>
     </row>
-    <row r="345" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="3">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A345" s="2">
         <v>30070</v>
       </c>
-      <c r="B345" s="3">
-        <v>2017</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E345" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F345" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J345" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K345" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="L345" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M345" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N345" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="O345" s="3">
-        <v>2016</v>
-      </c>
-      <c r="P345" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q345" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="346" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B345" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G345" s="2"/>
+      <c r="H345" s="2"/>
+      <c r="I345" s="2"/>
+      <c r="J345" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K345" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L345" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M345" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N345" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="O345" s="2">
+        <v>2010</v>
+      </c>
+      <c r="P345" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q345" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R345" s="2"/>
+      <c r="S345" s="2"/>
+    </row>
+    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>30071</v>
       </c>
@@ -25976,7 +25999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="347" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>30071</v>
       </c>
@@ -26026,7 +26049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>30071</v>
       </c>
@@ -26076,7 +26099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="349" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>30071</v>
       </c>
@@ -26120,7 +26143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="350" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>30071</v>
       </c>
@@ -26167,7 +26190,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="351" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>30072</v>
       </c>
@@ -26217,7 +26240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>30072</v>
       </c>
@@ -31777,46 +31800,46 @@
     </row>
     <row r="467" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A467">
-        <v>30095</v>
+        <v>30006</v>
       </c>
       <c r="B467">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="C467" t="s">
         <v>19</v>
       </c>
       <c r="D467" t="s">
-        <v>1334</v>
+        <v>112</v>
       </c>
       <c r="E467" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="F467" t="s">
-        <v>1344</v>
+        <v>118</v>
       </c>
       <c r="J467" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="K467" t="s">
-        <v>1344</v>
+        <v>118</v>
       </c>
       <c r="L467" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="M467" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N467" t="s">
-        <v>1345</v>
+        <v>119</v>
       </c>
       <c r="O467">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="P467" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q467" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="468" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -32000,46 +32023,46 @@
     </row>
     <row r="472" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A472">
-        <v>30096</v>
+        <v>30098</v>
       </c>
       <c r="B472">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="C472" t="s">
         <v>19</v>
       </c>
       <c r="D472" t="s">
-        <v>1351</v>
+        <v>1373</v>
       </c>
       <c r="E472" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="F472" t="s">
-        <v>1358</v>
+        <v>1379</v>
       </c>
       <c r="J472" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="K472" t="s">
-        <v>1358</v>
+        <v>1380</v>
       </c>
       <c r="L472" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="M472" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N472" t="s">
-        <v>1359</v>
+        <v>1381</v>
       </c>
       <c r="O472">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="P472" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q472" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="473" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -32427,7 +32450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="481" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>30098</v>
       </c>
@@ -32468,9 +32491,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A482">
-        <v>30098</v>
+        <v>30132</v>
       </c>
       <c r="B482">
         <v>2010</v>
@@ -32479,19 +32502,19 @@
         <v>19</v>
       </c>
       <c r="D482" t="s">
-        <v>1373</v>
+        <v>1820</v>
       </c>
       <c r="E482" t="s">
         <v>117</v>
       </c>
       <c r="F482" t="s">
-        <v>1379</v>
+        <v>1826</v>
       </c>
       <c r="J482" t="s">
         <v>50</v>
       </c>
       <c r="K482" t="s">
-        <v>1380</v>
+        <v>1827</v>
       </c>
       <c r="L482" t="s">
         <v>50</v>
@@ -32500,7 +32523,7 @@
         <v>50</v>
       </c>
       <c r="N482" t="s">
-        <v>1381</v>
+        <v>1828</v>
       </c>
       <c r="O482">
         <v>2010</v>
@@ -32512,7 +32535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="483" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>30098</v>
       </c>
@@ -32562,51 +32585,56 @@
         <v>36</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A484">
-        <v>30098</v>
-      </c>
-      <c r="B484">
-        <v>2017</v>
-      </c>
-      <c r="C484" t="s">
-        <v>19</v>
-      </c>
-      <c r="D484" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E484" t="s">
-        <v>41</v>
-      </c>
-      <c r="F484" t="s">
-        <v>1385</v>
-      </c>
-      <c r="J484" t="s">
-        <v>110</v>
-      </c>
-      <c r="K484" t="s">
-        <v>1385</v>
-      </c>
-      <c r="L484" t="s">
-        <v>41</v>
-      </c>
-      <c r="M484" t="s">
-        <v>110</v>
-      </c>
-      <c r="N484" t="s">
-        <v>1386</v>
-      </c>
-      <c r="O484">
-        <v>2016</v>
-      </c>
-      <c r="P484" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q484" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="485" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A484" s="2">
+        <v>30194</v>
+      </c>
+      <c r="B484" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>2694</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G484" s="2"/>
+      <c r="H484" s="2"/>
+      <c r="I484" s="2"/>
+      <c r="J484" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K484" s="2" t="s">
+        <v>2700</v>
+      </c>
+      <c r="L484" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M484" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N484" s="2" t="s">
+        <v>2701</v>
+      </c>
+      <c r="O484" s="2">
+        <v>2010</v>
+      </c>
+      <c r="P484" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q484" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R484" s="2"/>
+      <c r="S484" s="2"/>
+    </row>
+    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>30099</v>
       </c>
@@ -32653,7 +32681,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="486" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>30099</v>
       </c>
@@ -32700,7 +32728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="487" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>30099</v>
       </c>
@@ -32741,7 +32769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="488" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>30099</v>
       </c>
@@ -32788,7 +32816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="489" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>30099</v>
       </c>
@@ -32838,7 +32866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="490" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>30099</v>
       </c>
@@ -32885,7 +32913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="491" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>30100</v>
       </c>
@@ -32932,7 +32960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="492" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>30100</v>
       </c>
@@ -32973,7 +33001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="493" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>30100</v>
       </c>
@@ -33023,7 +33051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="494" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>30100</v>
       </c>
@@ -33073,7 +33101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="495" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>30100</v>
       </c>
@@ -33120,7 +33148,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="496" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>30101</v>
       </c>
@@ -35560,46 +35588,46 @@
     </row>
     <row r="548" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A548">
-        <v>30109</v>
+        <v>30119</v>
       </c>
       <c r="B548">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C548" t="s">
         <v>19</v>
       </c>
       <c r="D548" t="s">
-        <v>1520</v>
+        <v>1640</v>
       </c>
       <c r="E548" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="F548" t="s">
-        <v>1530</v>
+        <v>1649</v>
       </c>
       <c r="J548" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K548" t="s">
-        <v>1530</v>
+        <v>1650</v>
       </c>
       <c r="L548" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="M548" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="N548" t="s">
-        <v>1531</v>
+        <v>1651</v>
       </c>
       <c r="O548">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="P548" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q548" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="549" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -36172,7 +36200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="561" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>30112</v>
       </c>
@@ -36219,7 +36247,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="562" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>30112</v>
       </c>
@@ -36266,7 +36294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="563" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>30112</v>
       </c>
@@ -36307,7 +36335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="564" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>30112</v>
       </c>
@@ -36357,7 +36385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="565" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>30112</v>
       </c>
@@ -36407,51 +36435,56 @@
         <v>36</v>
       </c>
     </row>
-    <row r="566" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A566">
-        <v>30112</v>
-      </c>
-      <c r="B566">
-        <v>2017</v>
-      </c>
-      <c r="C566" t="s">
-        <v>19</v>
-      </c>
-      <c r="D566" t="s">
-        <v>1558</v>
-      </c>
-      <c r="E566" t="s">
-        <v>78</v>
-      </c>
-      <c r="F566" t="s">
-        <v>1568</v>
-      </c>
-      <c r="J566" t="s">
-        <v>78</v>
-      </c>
-      <c r="K566" t="s">
-        <v>1568</v>
-      </c>
-      <c r="L566" t="s">
-        <v>78</v>
-      </c>
-      <c r="M566" t="s">
-        <v>78</v>
-      </c>
-      <c r="N566" t="s">
-        <v>1569</v>
-      </c>
-      <c r="O566">
-        <v>2016</v>
-      </c>
-      <c r="P566" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q566" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="567" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A566" s="2">
+        <v>30179</v>
+      </c>
+      <c r="B566" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D566" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E566" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>2488</v>
+      </c>
+      <c r="G566" s="2"/>
+      <c r="H566" s="2"/>
+      <c r="I566" s="2"/>
+      <c r="J566" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K566" s="2" t="s">
+        <v>2488</v>
+      </c>
+      <c r="L566" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M566" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N566" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="O566" s="2">
+        <v>2010</v>
+      </c>
+      <c r="P566" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q566" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R566" s="2"/>
+      <c r="S566" s="2"/>
+    </row>
+    <row r="567" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>30113</v>
       </c>
@@ -36498,7 +36531,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="568" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>30113</v>
       </c>
@@ -36545,7 +36578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="569" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>30113</v>
       </c>
@@ -36586,7 +36619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="570" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>30113</v>
       </c>
@@ -36636,7 +36669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="571" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>30113</v>
       </c>
@@ -36683,7 +36716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="572" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>30113</v>
       </c>
@@ -36733,7 +36766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="573" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>30114</v>
       </c>
@@ -36780,7 +36813,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="574" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>30114</v>
       </c>
@@ -36830,7 +36863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="575" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>30114</v>
       </c>
@@ -36871,7 +36904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="576" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>30114</v>
       </c>
@@ -37667,7 +37700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="593" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>30117</v>
       </c>
@@ -37708,7 +37741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="594" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>30117</v>
       </c>
@@ -37758,7 +37791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="595" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>30117</v>
       </c>
@@ -37808,7 +37841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="596" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>30117</v>
       </c>
@@ -37858,7 +37891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="597" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>30118</v>
       </c>
@@ -37905,7 +37938,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="598" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>30118</v>
       </c>
@@ -37952,7 +37985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="599" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>30118</v>
       </c>
@@ -37993,7 +38026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="600" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>30118</v>
       </c>
@@ -38043,7 +38076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="601" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>30118</v>
       </c>
@@ -38093,7 +38126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="602" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>30118</v>
       </c>
@@ -38143,7 +38176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="603" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>30119</v>
       </c>
@@ -38190,7 +38223,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="604" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>30119</v>
       </c>
@@ -38237,7 +38270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="605" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>30119</v>
       </c>
@@ -38281,7 +38314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="606" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>30119</v>
       </c>
@@ -38331,51 +38364,56 @@
         <v>36</v>
       </c>
     </row>
-    <row r="607" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A607">
-        <v>30119</v>
-      </c>
-      <c r="B607">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A607" s="2">
+        <v>30212</v>
+      </c>
+      <c r="B607" s="2">
         <v>2013</v>
       </c>
-      <c r="C607" t="s">
-        <v>19</v>
-      </c>
-      <c r="D607" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E607" t="s">
-        <v>149</v>
-      </c>
-      <c r="F607" t="s">
-        <v>1649</v>
-      </c>
-      <c r="J607" t="s">
+      <c r="C607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>2941</v>
+      </c>
+      <c r="E607" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>2942</v>
+      </c>
+      <c r="G607" s="2"/>
+      <c r="H607" s="2"/>
+      <c r="I607" s="2"/>
+      <c r="J607" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K607" t="s">
-        <v>1650</v>
-      </c>
-      <c r="L607" t="s">
-        <v>58</v>
-      </c>
-      <c r="M607" t="s">
+      <c r="K607" s="2" t="s">
+        <v>2942</v>
+      </c>
+      <c r="L607" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M607" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="N607" t="s">
-        <v>1651</v>
-      </c>
-      <c r="O607">
-        <v>2010</v>
-      </c>
-      <c r="P607" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q607" t="s">
+      <c r="N607" s="2" t="s">
+        <v>2943</v>
+      </c>
+      <c r="O607" s="2">
+        <v>2010</v>
+      </c>
+      <c r="P607" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q607" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="608" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R607" s="2"/>
+      <c r="S607" s="2"/>
+    </row>
+    <row r="608" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>30119</v>
       </c>
@@ -38659,7 +38697,7 @@
     </row>
     <row r="614" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A614">
-        <v>30120</v>
+        <v>30003</v>
       </c>
       <c r="B614">
         <v>2017</v>
@@ -38668,19 +38706,19 @@
         <v>19</v>
       </c>
       <c r="D614" t="s">
-        <v>1656</v>
+        <v>65</v>
       </c>
       <c r="E614" t="s">
         <v>78</v>
       </c>
       <c r="F614" t="s">
-        <v>1667</v>
+        <v>79</v>
       </c>
       <c r="J614" t="s">
         <v>78</v>
       </c>
       <c r="K614" t="s">
-        <v>1667</v>
+        <v>79</v>
       </c>
       <c r="L614" t="s">
         <v>78</v>
@@ -38689,7 +38727,7 @@
         <v>78</v>
       </c>
       <c r="N614" t="s">
-        <v>1668</v>
+        <v>77</v>
       </c>
       <c r="O614">
         <v>2016</v>
@@ -41811,46 +41849,46 @@
     </row>
     <row r="681" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A681">
-        <v>30132</v>
+        <v>30026</v>
       </c>
       <c r="B681">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="C681" t="s">
         <v>19</v>
       </c>
       <c r="D681" t="s">
-        <v>1820</v>
+        <v>403</v>
       </c>
       <c r="E681" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="F681" t="s">
-        <v>1826</v>
+        <v>417</v>
       </c>
       <c r="J681" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="K681" t="s">
-        <v>1827</v>
+        <v>417</v>
       </c>
       <c r="L681" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="M681" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="N681" t="s">
-        <v>1828</v>
+        <v>418</v>
       </c>
       <c r="O681">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="P681" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="Q681" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="682" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -41905,7 +41943,7 @@
     </row>
     <row r="683" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A683">
-        <v>30132</v>
+        <v>30032</v>
       </c>
       <c r="B683">
         <v>2017</v>
@@ -41914,19 +41952,19 @@
         <v>19</v>
       </c>
       <c r="D683" t="s">
-        <v>1833</v>
+        <v>484</v>
       </c>
       <c r="E683" t="s">
         <v>78</v>
       </c>
       <c r="F683" t="s">
-        <v>1826</v>
+        <v>491</v>
       </c>
       <c r="J683" t="s">
         <v>78</v>
       </c>
       <c r="K683" t="s">
-        <v>1826</v>
+        <v>491</v>
       </c>
       <c r="L683" t="s">
         <v>78</v>
@@ -41935,7 +41973,7 @@
         <v>78</v>
       </c>
       <c r="N683" t="s">
-        <v>1834</v>
+        <v>492</v>
       </c>
       <c r="O683">
         <v>2016</v>
@@ -42182,7 +42220,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="689" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>30133</v>
       </c>
@@ -42229,7 +42267,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="690" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>30134</v>
       </c>
@@ -42276,7 +42314,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="691" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>30134</v>
       </c>
@@ -42323,7 +42361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="692" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>30134</v>
       </c>
@@ -42364,7 +42402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="693" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>30134</v>
       </c>
@@ -42414,7 +42452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="694" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>30134</v>
       </c>
@@ -42464,7 +42502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="695" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>30134</v>
       </c>
@@ -42514,7 +42552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="696" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>30135</v>
       </c>
@@ -42561,7 +42599,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="697" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>30135</v>
       </c>
@@ -42608,7 +42646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="698" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>30135</v>
       </c>
@@ -42649,7 +42687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="699" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>30135</v>
       </c>
@@ -42699,7 +42737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="700" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>30135</v>
       </c>
@@ -42749,51 +42787,56 @@
         <v>36</v>
       </c>
     </row>
-    <row r="701" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A701">
-        <v>30135</v>
-      </c>
-      <c r="B701">
+    <row r="701" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A701" s="2">
+        <v>30054</v>
+      </c>
+      <c r="B701" s="2">
         <v>2017</v>
       </c>
-      <c r="C701" t="s">
-        <v>19</v>
-      </c>
-      <c r="D701" t="s">
-        <v>1862</v>
-      </c>
-      <c r="E701" t="s">
+      <c r="C701" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D701" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="E701" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F701" t="s">
-        <v>1874</v>
-      </c>
-      <c r="J701" t="s">
-        <v>47</v>
-      </c>
-      <c r="K701" t="s">
-        <v>1874</v>
-      </c>
-      <c r="L701" t="s">
+      <c r="F701" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G701" s="2"/>
+      <c r="H701" s="2"/>
+      <c r="I701" s="2"/>
+      <c r="J701" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M701" t="s">
-        <v>48</v>
-      </c>
-      <c r="N701" t="s">
-        <v>1875</v>
-      </c>
-      <c r="O701">
+      <c r="K701" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="L701" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M701" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N701" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="O701" s="2">
         <v>2016</v>
       </c>
-      <c r="P701" t="s">
+      <c r="P701" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q701" t="s">
+      <c r="Q701" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="702" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R701" s="2"/>
+      <c r="S701" s="2"/>
+    </row>
+    <row r="702" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>30136</v>
       </c>
@@ -42843,7 +42886,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="703" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>30136</v>
       </c>
@@ -42893,7 +42936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="704" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>30136</v>
       </c>
@@ -43039,7 +43082,7 @@
     </row>
     <row r="707" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A707">
-        <v>30136</v>
+        <v>30070</v>
       </c>
       <c r="B707">
         <v>2017</v>
@@ -43048,28 +43091,28 @@
         <v>19</v>
       </c>
       <c r="D707" t="s">
-        <v>1876</v>
+        <v>1008</v>
       </c>
       <c r="E707" t="s">
         <v>78</v>
       </c>
       <c r="F707" t="s">
-        <v>1890</v>
+        <v>1009</v>
       </c>
       <c r="J707" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="K707" t="s">
-        <v>1890</v>
+        <v>1009</v>
       </c>
       <c r="L707" t="s">
         <v>78</v>
       </c>
       <c r="M707" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="N707" t="s">
-        <v>1891</v>
+        <v>1010</v>
       </c>
       <c r="O707">
         <v>2016</v>
@@ -44035,40 +44078,46 @@
     </row>
     <row r="728" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A728">
-        <v>30140</v>
+        <v>30095</v>
       </c>
       <c r="B728">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="C728" t="s">
         <v>19</v>
       </c>
       <c r="D728" t="s">
-        <v>1938</v>
+        <v>1334</v>
       </c>
       <c r="E728" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F728" t="s">
-        <v>1940</v>
+        <v>1344</v>
       </c>
       <c r="J728" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="K728" t="s">
-        <v>1940</v>
+        <v>1344</v>
       </c>
       <c r="L728" t="s">
-        <v>50</v>
+        <v>78</v>
+      </c>
+      <c r="M728" t="s">
+        <v>78</v>
+      </c>
+      <c r="N728" t="s">
+        <v>1345</v>
       </c>
       <c r="O728">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="P728" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="Q728" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="729" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -48974,7 +49023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="833" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>30158</v>
       </c>
@@ -49024,51 +49073,56 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="834" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A834" s="2">
-        <v>30158</v>
-      </c>
-      <c r="B834" s="2">
-        <v>2004</v>
-      </c>
-      <c r="C834" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D834" s="2" t="s">
-        <v>2191</v>
-      </c>
-      <c r="E834" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F834" s="2" t="s">
-        <v>2192</v>
-      </c>
-      <c r="J834" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K834" s="2" t="s">
-        <v>2192</v>
-      </c>
-      <c r="L834" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="M834" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N834" s="2" t="s">
-        <v>2195</v>
-      </c>
-      <c r="O834" s="2">
-        <v>2004</v>
-      </c>
-      <c r="P834" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q834" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="835" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A834">
+        <v>30096</v>
+      </c>
+      <c r="B834">
+        <v>2017</v>
+      </c>
+      <c r="C834" t="s">
+        <v>19</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E834" t="s">
+        <v>78</v>
+      </c>
+      <c r="F834" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G834"/>
+      <c r="H834"/>
+      <c r="I834"/>
+      <c r="J834" t="s">
+        <v>78</v>
+      </c>
+      <c r="K834" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L834" t="s">
+        <v>78</v>
+      </c>
+      <c r="M834" t="s">
+        <v>78</v>
+      </c>
+      <c r="N834" t="s">
+        <v>1359</v>
+      </c>
+      <c r="O834">
+        <v>2016</v>
+      </c>
+      <c r="P834" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q834" t="s">
+        <v>42</v>
+      </c>
+      <c r="R834"/>
+      <c r="S834"/>
+    </row>
+    <row r="835" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>30158</v>
       </c>
@@ -49112,7 +49166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="836" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>30158</v>
       </c>
@@ -49162,7 +49216,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="837" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>30158</v>
       </c>
@@ -49212,7 +49266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="838" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>30158</v>
       </c>
@@ -49262,7 +49316,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="839" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>30159</v>
       </c>
@@ -49309,7 +49363,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="840" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>30159</v>
       </c>
@@ -49356,7 +49410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="841" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>30159</v>
       </c>
@@ -49400,7 +49454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="842" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>30159</v>
       </c>
@@ -49447,7 +49501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="843" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>30159</v>
       </c>
@@ -49497,7 +49551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="844" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>30159</v>
       </c>
@@ -49544,7 +49598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="845" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>30160</v>
       </c>
@@ -49591,7 +49645,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="846" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>30160</v>
       </c>
@@ -49641,7 +49695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="847" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>30160</v>
       </c>
@@ -49682,7 +49736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="848" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>30160</v>
       </c>
@@ -51222,47 +51276,47 @@
         <v>36</v>
       </c>
     </row>
-    <row r="880" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A880" s="3">
-        <v>30166</v>
-      </c>
-      <c r="B880" s="3">
+    <row r="880" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A880">
+        <v>30109</v>
+      </c>
+      <c r="B880">
         <v>2017</v>
       </c>
-      <c r="C880" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D880" s="3" t="s">
-        <v>2315</v>
-      </c>
-      <c r="E880" s="3" t="s">
+      <c r="C880" t="s">
+        <v>19</v>
+      </c>
+      <c r="D880" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E880" t="s">
         <v>78</v>
       </c>
-      <c r="F880" s="3" t="s">
-        <v>2316</v>
-      </c>
-      <c r="J880" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K880" s="3" t="s">
-        <v>2316</v>
-      </c>
-      <c r="L880" s="3" t="s">
+      <c r="F880" t="s">
+        <v>1530</v>
+      </c>
+      <c r="J880" t="s">
         <v>78</v>
       </c>
-      <c r="M880" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N880" s="3" t="s">
-        <v>2317</v>
-      </c>
-      <c r="O880" s="3">
+      <c r="K880" t="s">
+        <v>1530</v>
+      </c>
+      <c r="L880" t="s">
+        <v>78</v>
+      </c>
+      <c r="M880" t="s">
+        <v>78</v>
+      </c>
+      <c r="N880" t="s">
+        <v>1531</v>
+      </c>
+      <c r="O880">
         <v>2016</v>
       </c>
-      <c r="P880" s="3" t="s">
+      <c r="P880" t="s">
         <v>41</v>
       </c>
-      <c r="Q880" s="3" t="s">
+      <c r="Q880" t="s">
         <v>42</v>
       </c>
     </row>
@@ -53591,7 +53645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="929" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>30176</v>
       </c>
@@ -53641,7 +53695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="930" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>30177</v>
       </c>
@@ -53688,7 +53742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="931" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>30177</v>
       </c>
@@ -53735,7 +53789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="932" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>30177</v>
       </c>
@@ -53785,7 +53839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="933" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>30177</v>
       </c>
@@ -53835,7 +53889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="934" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>30177</v>
       </c>
@@ -53882,7 +53936,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="935" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>30178</v>
       </c>
@@ -53932,7 +53986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="936" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>30178</v>
       </c>
@@ -53979,7 +54033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="937" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>30178</v>
       </c>
@@ -54029,7 +54083,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="938" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>30178</v>
       </c>
@@ -54079,7 +54133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="939" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>30178</v>
       </c>
@@ -54126,7 +54180,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="940" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>30179</v>
       </c>
@@ -54176,7 +54230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="941" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>30179</v>
       </c>
@@ -54223,7 +54277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="942" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>30179</v>
       </c>
@@ -54273,95 +54327,100 @@
         <v>36</v>
       </c>
     </row>
-    <row r="943" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A943" s="2">
-        <v>30179</v>
-      </c>
-      <c r="B943" s="2">
-        <v>2013</v>
-      </c>
-      <c r="C943" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D943" s="2" t="s">
-        <v>2477</v>
-      </c>
-      <c r="E943" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F943" s="2" t="s">
-        <v>2488</v>
-      </c>
-      <c r="J943" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K943" s="2" t="s">
-        <v>2488</v>
-      </c>
-      <c r="L943" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="M943" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N943" s="2" t="s">
-        <v>2489</v>
-      </c>
-      <c r="O943" s="2">
-        <v>2010</v>
-      </c>
-      <c r="P943" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q943" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="944" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A944" s="3">
-        <v>30179</v>
-      </c>
-      <c r="B944" s="3">
+    <row r="943" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A943">
+        <v>30112</v>
+      </c>
+      <c r="B943">
         <v>2017</v>
       </c>
-      <c r="C944" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D944" s="3" t="s">
-        <v>2490</v>
-      </c>
-      <c r="E944" s="3" t="s">
+      <c r="C943" t="s">
+        <v>19</v>
+      </c>
+      <c r="D943" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E943" t="s">
         <v>78</v>
       </c>
-      <c r="F944" s="3" t="s">
-        <v>2482</v>
-      </c>
-      <c r="J944" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K944" s="3" t="s">
-        <v>2482</v>
-      </c>
-      <c r="L944" s="3" t="s">
+      <c r="F943" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G943"/>
+      <c r="H943"/>
+      <c r="I943"/>
+      <c r="J943" t="s">
         <v>78</v>
       </c>
-      <c r="M944" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N944" s="3" t="s">
-        <v>2483</v>
-      </c>
-      <c r="O944" s="3">
+      <c r="K943" t="s">
+        <v>1568</v>
+      </c>
+      <c r="L943" t="s">
+        <v>78</v>
+      </c>
+      <c r="M943" t="s">
+        <v>78</v>
+      </c>
+      <c r="N943" t="s">
+        <v>1569</v>
+      </c>
+      <c r="O943">
         <v>2016</v>
       </c>
-      <c r="P944" s="3" t="s">
+      <c r="P943" t="s">
         <v>41</v>
       </c>
-      <c r="Q944" s="3" t="s">
+      <c r="Q943" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="945" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R943"/>
+      <c r="S943"/>
+    </row>
+    <row r="944" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A944">
+        <v>30120</v>
+      </c>
+      <c r="B944">
+        <v>2017</v>
+      </c>
+      <c r="C944" t="s">
+        <v>19</v>
+      </c>
+      <c r="D944" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E944" t="s">
+        <v>78</v>
+      </c>
+      <c r="F944" t="s">
+        <v>1667</v>
+      </c>
+      <c r="J944" t="s">
+        <v>78</v>
+      </c>
+      <c r="K944" t="s">
+        <v>1667</v>
+      </c>
+      <c r="L944" t="s">
+        <v>78</v>
+      </c>
+      <c r="M944" t="s">
+        <v>78</v>
+      </c>
+      <c r="N944" t="s">
+        <v>1668</v>
+      </c>
+      <c r="O944">
+        <v>2016</v>
+      </c>
+      <c r="P944" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q944" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="945" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>30180</v>
       </c>
@@ -54411,7 +54470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="946" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>30180</v>
       </c>
@@ -54461,7 +54520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="947" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>30180</v>
       </c>
@@ -54508,7 +54567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="948" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>30180</v>
       </c>
@@ -54555,7 +54614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="949" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>30180</v>
       </c>
@@ -54602,7 +54661,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="950" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>30181</v>
       </c>
@@ -54652,51 +54711,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="951" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A951" s="2">
-        <v>30181</v>
-      </c>
-      <c r="B951" s="2">
-        <v>2007</v>
-      </c>
-      <c r="C951" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D951" s="2" t="s">
-        <v>2505</v>
-      </c>
-      <c r="E951" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F951" s="2" t="s">
-        <v>2509</v>
-      </c>
-      <c r="J951" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K951" s="2" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L951" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M951" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N951" s="2" t="s">
-        <v>2510</v>
-      </c>
-      <c r="O951" s="2">
-        <v>2004</v>
-      </c>
-      <c r="P951" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q951" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="952" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A951">
+        <v>30132</v>
+      </c>
+      <c r="B951">
+        <v>2017</v>
+      </c>
+      <c r="C951" t="s">
+        <v>19</v>
+      </c>
+      <c r="D951" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E951" t="s">
+        <v>78</v>
+      </c>
+      <c r="F951" t="s">
+        <v>1826</v>
+      </c>
+      <c r="G951"/>
+      <c r="H951"/>
+      <c r="I951"/>
+      <c r="J951" t="s">
+        <v>78</v>
+      </c>
+      <c r="K951" t="s">
+        <v>1826</v>
+      </c>
+      <c r="L951" t="s">
+        <v>78</v>
+      </c>
+      <c r="M951" t="s">
+        <v>78</v>
+      </c>
+      <c r="N951" t="s">
+        <v>1834</v>
+      </c>
+      <c r="O951">
+        <v>2016</v>
+      </c>
+      <c r="P951" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q951" t="s">
+        <v>42</v>
+      </c>
+      <c r="R951"/>
+      <c r="S951"/>
+    </row>
+    <row r="952" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>30181</v>
       </c>
@@ -54746,7 +54810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="953" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>30181</v>
       </c>
@@ -54796,7 +54860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="954" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>30181</v>
       </c>
@@ -54843,7 +54907,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="955" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>30182</v>
       </c>
@@ -54893,7 +54957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="956" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>30182</v>
       </c>
@@ -54940,7 +55004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="957" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>30182</v>
       </c>
@@ -54990,7 +55054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="958" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>30182</v>
       </c>
@@ -55037,7 +55101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="959" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>30182</v>
       </c>
@@ -55087,7 +55151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="960" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>30183</v>
       </c>
@@ -55134,7 +55198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="961" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>30183</v>
       </c>
@@ -55181,7 +55245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="962" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>30183</v>
       </c>
@@ -55228,7 +55292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="963" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>30183</v>
       </c>
@@ -55278,7 +55342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="964" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>30183</v>
       </c>
@@ -55325,7 +55389,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="965" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>30184</v>
       </c>
@@ -55372,51 +55436,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="966" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A966" s="2">
-        <v>30184</v>
-      </c>
-      <c r="B966" s="2">
-        <v>2007</v>
-      </c>
-      <c r="C966" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D966" s="2" t="s">
-        <v>2548</v>
-      </c>
-      <c r="E966" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F966" s="2" t="s">
-        <v>2549</v>
-      </c>
-      <c r="J966" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K966" s="2" t="s">
-        <v>2549</v>
-      </c>
-      <c r="L966" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M966" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N966" s="2" t="s">
-        <v>2550</v>
-      </c>
-      <c r="O966" s="2">
-        <v>2004</v>
-      </c>
-      <c r="P966" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q966" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="967" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A966">
+        <v>30135</v>
+      </c>
+      <c r="B966">
+        <v>2017</v>
+      </c>
+      <c r="C966" t="s">
+        <v>19</v>
+      </c>
+      <c r="D966" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E966" t="s">
+        <v>78</v>
+      </c>
+      <c r="F966" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G966"/>
+      <c r="H966"/>
+      <c r="I966"/>
+      <c r="J966" t="s">
+        <v>47</v>
+      </c>
+      <c r="K966" t="s">
+        <v>1874</v>
+      </c>
+      <c r="L966" t="s">
+        <v>78</v>
+      </c>
+      <c r="M966" t="s">
+        <v>48</v>
+      </c>
+      <c r="N966" t="s">
+        <v>1875</v>
+      </c>
+      <c r="O966">
+        <v>2016</v>
+      </c>
+      <c r="P966" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q966" t="s">
+        <v>42</v>
+      </c>
+      <c r="R966"/>
+      <c r="S966"/>
+    </row>
+    <row r="967" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>30184</v>
       </c>
@@ -55466,7 +55535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="968" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>30184</v>
       </c>
@@ -55516,7 +55585,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="969" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>30184</v>
       </c>
@@ -55563,7 +55632,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="970" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>30185</v>
       </c>
@@ -55613,7 +55682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="971" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>30185</v>
       </c>
@@ -55660,7 +55729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="972" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>30185</v>
       </c>
@@ -55710,7 +55779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="973" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>30185</v>
       </c>
@@ -55760,7 +55829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="974" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>30185</v>
       </c>
@@ -55810,7 +55879,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="975" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>30186</v>
       </c>
@@ -55857,7 +55926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="976" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>30186</v>
       </c>
@@ -57218,47 +57287,47 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1004" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1004" s="3">
-        <v>30191</v>
-      </c>
-      <c r="B1004" s="3">
+    <row r="1004" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1004">
+        <v>30136</v>
+      </c>
+      <c r="B1004">
         <v>2017</v>
       </c>
-      <c r="C1004" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1004" s="3" t="s">
-        <v>2659</v>
-      </c>
-      <c r="E1004" s="3" t="s">
+      <c r="C1004" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>1890</v>
+      </c>
+      <c r="J1004" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1004" t="s">
+        <v>1890</v>
+      </c>
+      <c r="L1004" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1004" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1004" t="s">
+        <v>1891</v>
+      </c>
+      <c r="O1004">
+        <v>2016</v>
+      </c>
+      <c r="P1004" t="s">
         <v>41</v>
       </c>
-      <c r="F1004" s="3" t="s">
-        <v>2660</v>
-      </c>
-      <c r="J1004" s="3" t="s">
-        <v>2661</v>
-      </c>
-      <c r="K1004" s="3" t="s">
-        <v>2662</v>
-      </c>
-      <c r="L1004" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M1004" s="3" t="s">
-        <v>2661</v>
-      </c>
-      <c r="N1004" s="3" t="s">
-        <v>2663</v>
-      </c>
-      <c r="O1004" s="3">
-        <v>2016</v>
-      </c>
-      <c r="P1004" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1004" s="3" t="s">
+      <c r="Q1004" t="s">
         <v>42</v>
       </c>
     </row>
@@ -57459,51 +57528,56 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1009" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1009" s="2">
-        <v>30192</v>
-      </c>
-      <c r="B1009" s="2">
+    <row r="1009" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1009">
+        <v>30166</v>
+      </c>
+      <c r="B1009">
         <v>2017</v>
       </c>
-      <c r="C1009" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1009" s="2" t="s">
-        <v>2664</v>
-      </c>
-      <c r="E1009" s="2" t="s">
+      <c r="C1009" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>2315</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>2316</v>
+      </c>
+      <c r="G1009"/>
+      <c r="H1009"/>
+      <c r="I1009"/>
+      <c r="J1009" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1009" t="s">
+        <v>2316</v>
+      </c>
+      <c r="L1009" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1009" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1009" t="s">
+        <v>2317</v>
+      </c>
+      <c r="O1009">
+        <v>2016</v>
+      </c>
+      <c r="P1009" t="s">
         <v>41</v>
       </c>
-      <c r="F1009" s="2" t="s">
-        <v>2676</v>
-      </c>
-      <c r="J1009" s="2" t="s">
-        <v>2661</v>
-      </c>
-      <c r="K1009" s="2" t="s">
-        <v>2676</v>
-      </c>
-      <c r="L1009" s="2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M1009" s="2" t="s">
-        <v>2661</v>
-      </c>
-      <c r="N1009" s="2" t="s">
-        <v>2677</v>
-      </c>
-      <c r="O1009" s="2">
-        <v>2016</v>
-      </c>
-      <c r="P1009" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1009" s="2" t="s">
+      <c r="Q1009" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1010" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R1009"/>
+      <c r="S1009"/>
+    </row>
+    <row r="1010" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>30193</v>
       </c>
@@ -57550,7 +57624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1011" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>30193</v>
       </c>
@@ -57597,7 +57671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1012" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>30193</v>
       </c>
@@ -57647,7 +57721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1013" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>30193</v>
       </c>
@@ -57697,7 +57771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1014" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>30193</v>
       </c>
@@ -57747,7 +57821,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1015" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>30194</v>
       </c>
@@ -57794,7 +57868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1016" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>30194</v>
       </c>
@@ -57841,51 +57915,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1017" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1017" s="2">
-        <v>30194</v>
-      </c>
-      <c r="B1017" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C1017" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1017" s="2" t="s">
-        <v>2694</v>
-      </c>
-      <c r="E1017" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1017" s="2" t="s">
-        <v>2700</v>
-      </c>
-      <c r="J1017" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1017" s="2" t="s">
-        <v>2700</v>
-      </c>
-      <c r="L1017" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1017" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1017" s="2" t="s">
-        <v>2701</v>
-      </c>
-      <c r="O1017" s="2">
-        <v>2010</v>
-      </c>
-      <c r="P1017" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1017" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1017">
+        <v>30179</v>
+      </c>
+      <c r="B1017">
+        <v>2017</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G1017"/>
+      <c r="H1017"/>
+      <c r="I1017"/>
+      <c r="J1017" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1017" t="s">
+        <v>2482</v>
+      </c>
+      <c r="L1017" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1017" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1017" t="s">
+        <v>2483</v>
+      </c>
+      <c r="O1017">
+        <v>2016</v>
+      </c>
+      <c r="P1017" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1017" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1017"/>
+      <c r="S1017"/>
+    </row>
+    <row r="1018" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>30194</v>
       </c>
@@ -57935,7 +58014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1019" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>30194</v>
       </c>
@@ -57982,7 +58061,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1020" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>30195</v>
       </c>
@@ -58032,7 +58111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1021" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>30195</v>
       </c>
@@ -58079,7 +58158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1022" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>30195</v>
       </c>
@@ -58129,7 +58208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1023" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>30195</v>
       </c>
@@ -58176,7 +58255,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1024" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1024">
         <v>30195</v>
       </c>
@@ -58223,7 +58302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1025" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1025">
         <v>30196</v>
       </c>
@@ -58270,7 +58349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1026" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1026">
         <v>30196</v>
       </c>
@@ -58317,7 +58396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1027" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>30196</v>
       </c>
@@ -58364,7 +58443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1028" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>30196</v>
       </c>
@@ -58414,7 +58493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1029" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1029">
         <v>30196</v>
       </c>
@@ -58464,7 +58543,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1030" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1030">
         <v>30197</v>
       </c>
@@ -58511,12 +58590,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1031" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1031" s="2">
         <v>30197</v>
       </c>
       <c r="B1031" s="2">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="C1031" s="2" t="s">
         <v>19</v>
@@ -58525,37 +58604,37 @@
         <v>2734</v>
       </c>
       <c r="E1031" s="2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F1031" s="2" t="s">
-        <v>2737</v>
+        <v>2743</v>
       </c>
       <c r="J1031" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K1031" s="2" t="s">
-        <v>2737</v>
+        <v>2743</v>
       </c>
       <c r="L1031" s="2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="M1031" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N1031" s="2" t="s">
-        <v>2738</v>
+        <v>2744</v>
       </c>
       <c r="O1031" s="2">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="P1031" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="Q1031" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1032">
         <v>30197</v>
       </c>
@@ -58602,7 +58681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1033" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033">
         <v>30197</v>
       </c>
@@ -58652,51 +58731,56 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1034" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1034" s="2">
-        <v>30197</v>
-      </c>
-      <c r="B1034" s="2">
+    <row r="1034" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1034">
+        <v>30098</v>
+      </c>
+      <c r="B1034">
         <v>2017</v>
       </c>
-      <c r="C1034" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1034" s="2" t="s">
-        <v>2734</v>
-      </c>
-      <c r="E1034" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1034" s="2" t="s">
-        <v>2743</v>
-      </c>
-      <c r="J1034" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1034" s="2" t="s">
-        <v>2743</v>
-      </c>
-      <c r="L1034" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1034" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1034" s="2" t="s">
-        <v>2744</v>
-      </c>
-      <c r="O1034" s="2">
+      <c r="C1034" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G1034"/>
+      <c r="H1034"/>
+      <c r="I1034"/>
+      <c r="J1034" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1034" t="s">
+        <v>1385</v>
+      </c>
+      <c r="L1034" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1034" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1034" t="s">
+        <v>1386</v>
+      </c>
+      <c r="O1034">
         <v>2016</v>
       </c>
-      <c r="P1034" s="2" t="s">
+      <c r="P1034" t="s">
         <v>41</v>
       </c>
-      <c r="Q1034" s="2" t="s">
+      <c r="Q1034" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1035" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R1034"/>
+      <c r="S1034"/>
+    </row>
+    <row r="1035" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1035">
         <v>30198</v>
       </c>
@@ -58743,7 +58827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1036" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>30198</v>
       </c>
@@ -58790,7 +58874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1037" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>30198</v>
       </c>
@@ -58837,7 +58921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1038" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>30198</v>
       </c>
@@ -58881,7 +58965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1039" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>30198</v>
       </c>
@@ -58928,7 +59012,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1040" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1040">
         <v>30199</v>
       </c>
@@ -60512,7 +60596,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1073" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1073">
         <v>30205</v>
       </c>
@@ -60559,7 +60643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1074" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1074">
         <v>30205</v>
       </c>
@@ -60609,7 +60693,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1075" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1075">
         <v>30206</v>
       </c>
@@ -60659,7 +60743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1076" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1076">
         <v>30206</v>
       </c>
@@ -60706,7 +60790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1077" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1077">
         <v>30206</v>
       </c>
@@ -60756,7 +60840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1078" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1078">
         <v>30206</v>
       </c>
@@ -60806,7 +60890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1079" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1079">
         <v>30206</v>
       </c>
@@ -60856,7 +60940,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1080" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1080">
         <v>30207</v>
       </c>
@@ -60906,51 +60990,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1081" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1081" s="2">
-        <v>30207</v>
-      </c>
-      <c r="B1081" s="2">
-        <v>2007</v>
-      </c>
-      <c r="C1081" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1081" s="2" t="s">
-        <v>2870</v>
-      </c>
-      <c r="E1081" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1081" s="2" t="s">
-        <v>2876</v>
-      </c>
-      <c r="J1081" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1081" s="2" t="s">
-        <v>2877</v>
-      </c>
-      <c r="L1081" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1081" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1081" s="2" t="s">
-        <v>2878</v>
-      </c>
-      <c r="O1081" s="2">
-        <v>2004</v>
-      </c>
-      <c r="P1081" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1081" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1081">
+        <v>30191</v>
+      </c>
+      <c r="B1081">
+        <v>2017</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>2659</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>2660</v>
+      </c>
+      <c r="G1081"/>
+      <c r="H1081"/>
+      <c r="I1081"/>
+      <c r="J1081" t="s">
+        <v>2661</v>
+      </c>
+      <c r="K1081" t="s">
+        <v>2662</v>
+      </c>
+      <c r="L1081" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M1081" t="s">
+        <v>2661</v>
+      </c>
+      <c r="N1081" t="s">
+        <v>2663</v>
+      </c>
+      <c r="O1081">
+        <v>2016</v>
+      </c>
+      <c r="P1081" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1081" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1081"/>
+      <c r="S1081"/>
+    </row>
+    <row r="1082" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1082">
         <v>30207</v>
       </c>
@@ -61000,7 +61089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1083" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1083">
         <v>30207</v>
       </c>
@@ -61050,7 +61139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1084" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1084">
         <v>30207</v>
       </c>
@@ -61100,7 +61189,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1085" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1085">
         <v>30208</v>
       </c>
@@ -61147,7 +61236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1086" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1086">
         <v>30208</v>
       </c>
@@ -61194,7 +61283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1087" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1087">
         <v>30208</v>
       </c>
@@ -61244,7 +61333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1088" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1088">
         <v>30208</v>
       </c>
@@ -62066,46 +62155,46 @@
     </row>
     <row r="1105" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1105" s="2">
-        <v>30212</v>
+        <v>30192</v>
       </c>
       <c r="B1105" s="2">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C1105" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D1105" s="2" t="s">
-        <v>2941</v>
+        <v>2664</v>
       </c>
       <c r="E1105" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F1105" s="2" t="s">
-        <v>2942</v>
+        <v>2676</v>
       </c>
       <c r="J1105" s="2" t="s">
-        <v>61</v>
+        <v>2661</v>
       </c>
       <c r="K1105" s="2" t="s">
-        <v>2942</v>
+        <v>2676</v>
       </c>
       <c r="L1105" s="2" t="s">
-        <v>56</v>
+        <v>1063</v>
       </c>
       <c r="M1105" s="2" t="s">
-        <v>107</v>
+        <v>2661</v>
       </c>
       <c r="N1105" s="2" t="s">
-        <v>2943</v>
+        <v>2677</v>
       </c>
       <c r="O1105" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="P1105" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="Q1105" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -62166,6 +62255,9 @@
     <filterColumn colId="7">
       <filters blank="1"/>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:S1185">
+      <sortCondition ref="B1:B1185"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/collapsed database manual cases/veracruz_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/veracruz_collapsed_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F692B03E-4C0C-684A-9034-D891DCC88226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB0488B-ADAE-F941-9465-00046AAA42EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4480" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13015" uniqueCount="2955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13048" uniqueCount="2965">
   <si>
     <t>uniqueid</t>
   </si>
@@ -8888,6 +8888,36 @@
   </si>
   <si>
     <t>http://priveracruz.mx/wp-content/uploads/2017/02/LA-ANTIGUA.pdf</t>
+  </si>
+  <si>
+    <t>ALICIA VALDIVIA VARGAS</t>
+  </si>
+  <si>
+    <t>MAYRA JANETH TORRES DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>FORTUNATA ZEPAHUA TEQUIHUATLE</t>
+  </si>
+  <si>
+    <t>IRMA DELIA BARCENA VILLA</t>
+  </si>
+  <si>
+    <t>ARGENIZ VAZQUEZ COPETE</t>
+  </si>
+  <si>
+    <t>FELIPA GUILLERMINA CRUZ CARBALLO</t>
+  </si>
+  <si>
+    <t>AMADO GUZMAN AVILES</t>
+  </si>
+  <si>
+    <t>CARLOS ROMERO GONZALEZ</t>
+  </si>
+  <si>
+    <t>PATRICIO AGUIRRE SOLIS</t>
+  </si>
+  <si>
+    <t>JUANA MARIA MARTINEZ GUERRERO</t>
   </si>
 </sst>
 </file>
@@ -9248,11 +9278,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S1106"/>
+  <dimension ref="A1:S1117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1132" sqref="G1132"/>
+      <pane ySplit="1" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1115" sqref="I1115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -62247,6 +62277,193 @@
         <v>42</v>
       </c>
     </row>
+    <row r="1107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1107">
+        <v>30046</v>
+      </c>
+      <c r="B1107">
+        <v>2021</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>2955</v>
+      </c>
+      <c r="H1107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1108">
+        <v>30054</v>
+      </c>
+      <c r="B1108">
+        <v>2021</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>2956</v>
+      </c>
+      <c r="H1108" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1109">
+        <v>30098</v>
+      </c>
+      <c r="B1109">
+        <v>2021</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>2957</v>
+      </c>
+      <c r="H1109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1110">
+        <v>30106</v>
+      </c>
+      <c r="B1110">
+        <v>2021</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>2958</v>
+      </c>
+      <c r="H1110" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1111">
+        <v>30143</v>
+      </c>
+      <c r="B1111">
+        <v>2021</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>2959</v>
+      </c>
+      <c r="H1111" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1112">
+        <v>30150</v>
+      </c>
+      <c r="B1112">
+        <v>2021</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>2088</v>
+      </c>
+      <c r="H1112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1113">
+        <v>30153</v>
+      </c>
+      <c r="B1113">
+        <v>2021</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>2960</v>
+      </c>
+      <c r="H1113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1114">
+        <v>30155</v>
+      </c>
+      <c r="B1114">
+        <v>2021</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>2961</v>
+      </c>
+      <c r="H1114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1115">
+        <v>30166</v>
+      </c>
+      <c r="B1115">
+        <v>2021</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>2962</v>
+      </c>
+      <c r="H1115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1116">
+        <v>30174</v>
+      </c>
+      <c r="B1116">
+        <v>2021</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>2963</v>
+      </c>
+      <c r="H1116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1117">
+        <v>30205</v>
+      </c>
+      <c r="B1117">
+        <v>2021</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>2964</v>
+      </c>
+      <c r="H1117" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S1106" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
